--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/80_Yozgat_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/80_Yozgat_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E823FE74-6447-4B20-8B52-45C7EFEFD362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BCC71F5-8831-4369-9AE1-181D2B4CCFFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{83085379-EB7B-44F1-9398-038062466EB4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{464B2651-3DC5-42D4-A356-0A08D74CE026}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{7073F7DF-2387-4EF5-A1E4-F83CDA2F0343}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{F75DB1C0-6A6B-4C98-AC91-4CC7313C1B6F}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{9A07D0D9-A0D5-424F-944F-2FFBB197C38F}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{6BAF7849-BEE4-4D11-9818-8F8F6487903C}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{1423BB07-D807-49B1-8FD1-4B8E173C0820}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{19616256-1FD2-4993-8D7C-F95A931B9BE2}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{BE905528-C026-48B9-8623-515C1E409674}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{A54830DB-F0FD-4FB9-8845-E96EB2D2777A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0671845-A090-44F1-AB46-7EFA8C624328}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{355E94F1-AC5A-40E7-9952-1E084E035296}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2443,18 +2443,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{9CB6F7ED-FA43-41DC-9AC1-A3BDBD319357}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{ACBAFC44-C466-4F5A-B421-8C075E3E27FE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{D6E921C8-1372-4B0A-B894-82E19576DE8A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{645B0AFD-ABD3-4A09-98D6-D8FDC08E64FD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{9B97FEA7-B0B9-4ACB-8858-798838DB3512}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{3F354691-340D-42BE-9960-C1B6CB4E0950}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{74EB8489-4993-4187-A919-6EFEEA2FB1EC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{68EBB8B9-776E-42AA-BAAC-992794BF6032}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{85562D6C-1731-436E-8503-718DCD03329A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{10805B92-B7B7-4C63-B9FE-C1F10406E63F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B346F148-F614-4F7E-86BE-E17BE1AD3C56}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{822877E0-552C-478C-8921-C2249310B35A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{783086BC-59DA-42B3-B258-E52E052C9BA4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{EB0FDAF6-D129-457C-BD0A-2C32CA7B4C90}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{769B7057-3A5C-42C0-BF02-932A9F026B69}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{4098C947-1374-453D-A776-C0646EB1C18B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B84E30C4-FAB2-48B8-BEB9-C7EB7B7CAB2A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{16DC3B63-E7A9-439E-91C8-CA9A28B6DE82}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{14B1ACD2-C002-426B-8047-201BB7DC1BEA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{C19C00E7-44C6-4F0A-BFE0-29B850782671}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{EA7CDB14-F8F3-467F-A65D-D4B45A283F51}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{CB02CE40-C003-4824-A7B8-525F576C2DEB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{A9B93ABC-AA5D-4A39-A78B-1D750765E24F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5BE24932-96AC-4776-AB45-8879D3E2CD3F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2467,7 +2467,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED46227-2833-43A8-BA28-8B1289433AF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64CC3252-7AD2-4D6B-8C52-7D9E21CBC111}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3644,18 +3644,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D721FFE9-04A7-4A91-B8A2-32F0572A6233}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{DCBBFDD1-7F9F-44FF-BB9A-FBB65688FA35}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{2FF0B190-176F-4DE2-9037-E5BE4D6C5A8C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{77160DD6-4A40-4FE7-A019-425140E6EC73}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{CCCFAA05-6E19-4582-8F79-EE9417BDD1A2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{18B70D5F-0AC3-4EFB-B16A-85DFB22EE51F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{63A2E813-9217-4011-8444-F935E087BD23}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{892B606A-1BFB-4910-8D31-962D8BE22A44}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{66753580-A3C6-47B6-8941-CA1BC1D6E1F9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C8E025C7-747A-4B36-A215-61743337BC25}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{78CA6713-0D6B-4A87-9F9A-EBF67BBD2CF8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{CAC224F2-C66D-4E5A-B033-BDF745D5CCE8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{B84DD0AE-820F-4EEA-B1A4-690BE38231B2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{9DE31606-085E-42C0-B289-D25F749216D5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{C0305BD5-A521-4A47-AA6D-0BEB497087AF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{DF39327A-62C6-46E2-83A5-64A81E025C5D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{A0D57F1F-B70B-4EFE-B692-6C77F187E547}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{823AD932-C177-4203-B547-96C52373495E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{B383EC88-0404-4293-9F59-03B5B6C13025}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{8EEC4D1E-08F9-4337-B013-FB37D292364B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B558D824-6D42-4FA6-B248-C5E37D7F2A60}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{8CE40369-1BC2-4FBF-8B51-29F449FF79F3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{5B38841A-98BE-4DE5-A0E1-06F326CDC9DB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F44D9FE1-33C6-4946-B237-C51B00D58254}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3668,7 +3668,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{804D3963-F627-4341-86B9-289FA7109149}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{272209E7-9730-4924-B3F9-F1065ACB7FAB}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4845,18 +4845,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{4BF5EC72-187D-4848-9032-26F3CFCA9BDB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{FCB0012C-8160-4FA0-9CDA-654FED6AC8B7}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{B0F3B05D-DB79-48AA-9AF7-1804DCA4B22F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{5686C38F-09DE-4A80-A398-3ACE54D2F9D6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{1CA3231E-DC71-424E-94F5-AB3553356A13}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{6DD6FAC8-0D50-4B91-A4F3-2B0E07AE13C7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{82B71096-196B-41D2-A77E-9097F7917B89}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{8DCE17E3-9D2E-4282-8EA6-3FD47B702D3C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{1481B0D7-8DE0-437D-A312-B39B6418182F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E0CF745C-F369-4E96-B7A8-2EC7775D76ED}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C83A378F-173A-4E42-85C3-08E1E5C24ADB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{7B1CCF76-3F35-429A-9942-702FCCB9E2CA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{BF5B9002-2389-4404-83A9-B7F7803F18F0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{7B0419C2-4EF4-4803-AF12-90090066E7E9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{73F662B6-747F-4AF2-ABC1-881E45502957}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{CEBB3538-DC42-4EBB-8903-316EEC7F33F2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{118C1D8E-C1DF-4ED1-BB56-061F94D62232}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{7877C22C-B8F7-45A5-A93B-59C8007C0E41}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{F1361CBC-1E26-4502-9207-6A887E3F61EC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{0C51350F-CF1D-461A-8F47-4B5FD554B078}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{EB0E5349-5CEB-473E-B399-ED4D64BF2E96}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{34CA3761-880D-4F5A-AC57-A7738560175C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{70EFD0B1-75B3-400B-94F7-9D687B49D8A3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{CBC74E76-333A-4683-9070-F738D3CE00BE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4869,7 +4869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2871C5FA-8C05-4A0A-9682-9EBB12CC947E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49431E6A-ADAC-47C4-B863-3D81EAEA73C5}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6038,18 +6038,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{DBE64ABA-3DE1-4B73-B645-217E0E011446}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{664E1FDB-DE9A-4942-8FA3-7C6850A6A979}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{F7B67BF1-319F-4E53-9B77-AAB779CD5A93}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{E7F04EB5-BBF7-4E1B-A44D-1AB353525E3C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{9B8A0DFC-D613-4259-8CC0-31D73582DC8F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{C92F0245-D116-4E8A-8A96-24B8F916425E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{618A5639-8385-4007-BD69-184C74D7EB36}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{70A1DF27-2F3D-4514-AD40-2C9E5BD92E13}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{344EF7DD-46CA-4E73-A02C-0664E6DE6A46}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{5317D7A1-C908-4DA2-BD34-C57A76660102}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{529F5688-0420-4AC0-9528-6181F9FB537B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E3432F66-C977-4396-8B7C-A45AEB521EB2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{8E04B7AC-F1BD-42B3-B6BB-DBB15404B13A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{D1AAB9AB-2C4F-4410-A8F5-FDE9158F789E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{59A2EA55-D9C5-439A-B7FD-7227B03D6492}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{4492689C-EF8D-457D-9841-CBC1C1D44F44}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B0C78838-A1FD-4F7B-87E4-F93481B63D8C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{E4E938D0-7DCE-462C-834C-9386675C9467}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{BC455BB1-8CD5-4EA9-A13E-801AC899C655}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{9A991DB2-F47E-4F0C-8792-44ED823A9C92}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B66C86FB-EE5D-4E44-ADBA-68639000F7EC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{3807362A-BE4D-4953-940B-E10AA0718ACA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{6F0C5000-C7BF-4FDB-A176-2AC2D04A1AD0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{7DA5F7E9-F8D5-4CE8-BAA8-0D98D10816FA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6062,7 +6062,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D99D2DF-E659-47ED-AE1C-826BE5933DDD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A113319D-E256-4C4D-9E5C-E3ADB777ED8A}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7269,18 +7269,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{689FDDDB-F97C-499E-ACB7-E03EEAF4693F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{8C3E00A7-F062-4140-ABC8-FFEBA2064990}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{24709E2A-4652-4E8F-AEDD-6A68C03778CF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{F24D31E3-730C-4736-99FE-CEBF47CB8CA8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{33B78552-5919-4803-8C0B-16FB00F4448F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{CAFB447E-3BDB-459A-B518-F8A818F3C3AA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{01497A9F-A185-4A3E-ABC9-73D1D8AF6BA0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{F30C0278-E0B8-4A16-A020-B5925C2F26DE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{C60886A8-FDF4-4F79-BB26-61A19854FE20}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{33C36DEC-C9ED-42DE-BBE0-6E63016401A3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{69AF8B13-3520-4261-9E14-68E849B56E72}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{107C4010-531B-47F7-A061-F6466526E935}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A7B6EB00-D339-4898-8BB5-61D40421F1C1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{9FF68375-3D40-4421-895F-F576FBD8CFB7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{70291EDE-08A4-48DC-9D1F-C787EC5E0612}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{84322398-D919-49BF-9F43-B4A39D98704A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{70B25375-583F-415B-8683-71EFC9A10861}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F8957A2F-E877-4A89-86E2-99CFFCB87A19}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{76A55D89-AE64-4BE8-937B-EB20099F6B96}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{BA058233-A3F4-4F7D-8D7B-07B228CE2893}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{24B3E766-99E5-405A-B649-B3820362949D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{EF778827-4B2C-491F-AFFF-F7E584B49BB7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{419EF316-AAFF-4758-8FBC-6A68B2B0F3A9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{9E39B64C-00F3-4488-B0D2-2ACF305FC17E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7293,7 +7293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3348C105-700B-4527-99FD-0FD1D2A517C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92043F4F-5FDE-4665-A45F-6DDE50674927}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8500,18 +8500,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D94F499C-2124-4911-91C7-BF00583F5F13}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{DC7E1AB4-059F-4E56-9BCC-4F8804A53938}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{9DD18600-98F7-4CED-8B1B-13C66350B3A3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{5D99DD66-85C9-4270-81C6-182DB87A6652}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{EAC4F83D-18BC-4B80-8031-CB7A6C781BB7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{BEB9A085-1CB0-4201-BA6A-8925E43525C1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C4834724-2106-476C-B6D1-DA97B23EEFF3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{ABDF7AF2-1F75-4FB8-A8A4-8EE3B1C0AAF1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B3827465-DD2B-43AE-B9DE-CD37DC4EC32F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{88127517-4209-460D-BCDD-B09AE24E0283}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{D89D6D4F-4269-4915-88E7-FC07458F8CC4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{076237D4-D8F5-46C6-B3EF-A900A623433B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{CBDD2C29-7E02-4867-A4C1-91226A5F5F3F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{4C066DCD-3FAD-40AB-A614-9B2863CE301D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{A2B4F81B-ADEF-4BA0-BAB5-834871FE1101}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{8BDDE100-9B98-4F39-8330-8540373D6568}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B3B1A6BC-CD16-48C0-9344-C87AA2EDE202}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{D8BC0C3F-625E-4280-B24C-CCA48095E040}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{7C1DE743-D2A2-437D-97F7-F613BE0D1D5C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{E76F3297-433A-4DD5-8A34-DD1EFB7E1AF5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{6A4A7027-2F21-42ED-BB09-E9F356D8D415}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{A86FB889-DFE6-4420-A3FC-B573E76674CE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{666C9C7C-95A9-43E9-909E-90CA1B83D964}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{597FAB46-32FA-4ED1-9404-D3CF58C5BB88}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8524,7 +8524,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E04B64D1-4172-4E87-BDD6-156EFF6A88D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D270B68-0F30-439F-B097-8B6ED830A394}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9731,18 +9731,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{6C5FE67C-F58D-4D35-9355-388619713B0E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{BA0030D2-F471-44C9-9806-3C3496F79ED1}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{210FD95D-C345-4314-80B6-AA02AE0DC5FE}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{82A8C059-1923-4009-83A0-95E77D12ACF8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{08723260-2978-44F6-9177-4607901C9754}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{FB3BD3A4-2E7F-45D0-9788-C367348ACEF4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{22A3E859-C130-4AD8-B931-F833B8C00F6A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{B2D4052A-BEF8-4201-A187-27817B86A0D1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{BD125C8B-88C9-4587-A3F5-045DBA25E568}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{A14E59AC-D229-4E69-B4BB-D354D96F405F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{7254F6FF-9392-4A4E-8EB8-273D4535F112}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{4C94BF53-AACC-4C89-B1FC-1F0635092FEF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{68CD8FCD-9FB8-48E5-8874-A9F56643C9A2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{29D34899-BD30-46A6-8F4E-ADA711E835DA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{7BE77A87-7854-48C6-8889-1A733BA95A64}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{95597DD5-0B4B-462E-87D7-D713E6C29718}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{15FAF86B-1355-427C-9ACF-BC2DE08251E3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B351A60B-6173-4D31-95F4-4EA5E1B18D67}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{85C14B39-B5C8-4882-9E9F-E9882C8E4F7E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{891FC795-5621-4A1B-8760-5C1E6974BFD2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{54A91BB6-FE81-4D91-A8E8-42B656B3A809}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{6ED7CCE0-5E3B-445B-9CDE-58A99C1EBB13}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{7A850F49-4AB6-40C6-AE68-B4DC5903CDE3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{46612CAB-AF78-4869-9D85-933DA87FE39A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9755,7 +9755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081E356C-479D-4F1E-A9F3-0C0942E81AC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1565013F-971A-40B4-8A5C-1EAACBB167F2}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10956,18 +10956,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{64CC0771-F01C-49F7-9400-8D857FE9216F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{240EB2B1-7960-487F-8EEE-2D5BC3652A2D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{33AD50E7-E5F7-41CF-ABFA-03D93CAD33EE}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{0C62AF19-8DE3-40EE-9869-D72924E11230}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{5E760098-6F15-4692-9389-F1CE79E51B4F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{3DC6482E-6C49-41EE-8665-7BA491917409}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{51357289-3B62-4587-93B7-673F399EFD18}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A4C838A1-834C-4284-A69E-642E045E1187}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B5BAA0E1-E570-47E5-BB56-DB24183D9D1A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{FB330D81-5A75-45F5-B5CB-A52F8F3D95BC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{4422FEFB-EE0D-4238-BC88-07A2C573EDB1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5627C3DA-6B3B-4429-9319-F4AA2771708B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{0FC29144-DFDB-4205-932C-D31E4417CFF7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{01D6BF1F-6EA2-4419-98B8-4C7DA26F96A7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{F0E19FD1-BF1E-4326-B168-CF0E6CFD9EA4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{57EC96D6-8E1E-48FE-8B50-E002BEC63568}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{78B5C127-542A-433B-A01A-13A0578E8F6F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{4289801F-13DA-4259-B660-49591E15BF18}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{635C7968-8F3E-4472-921B-CF9A366A35A2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{3D024C24-D459-4C70-B80D-F48A1931EA80}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{ED55A79C-6783-4B18-BAE5-0043AA7018C8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{063373F8-740E-4B12-B2A3-1D631AF13369}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{37C31C92-74F7-4E28-B021-F2884CDC722A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{BDB7ED3D-4881-4241-8ED7-2B9B725B1EAB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10980,7 +10980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1916BB76-ABE7-46F0-AB2F-46EC197F7237}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1236ECCA-3E4F-4F73-B5DF-D31CE907DD50}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12181,18 +12181,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{094D1636-6AC5-45D7-AEBF-96D4429D8B17}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{931C7507-2C43-4C21-97EE-2959868E4AAA}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{B9E397F6-6C29-429F-AD0A-44D8C91D6723}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{BB3CF2F7-6682-451D-96B3-36D9CC17D9F1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{D0B97342-79DF-4D8B-B207-BC43BB182FA9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{2191D151-5EC1-450F-9C48-BAAE49179CD2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{06AE697F-93A1-4198-82A0-D133265BEE66}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{C9229ECE-12C7-45C5-A5AF-0608D58F894A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{FC7513B2-1773-4CC4-81ED-D5B4228E2613}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{09BA2A34-6085-4111-864C-2CB19678F1A8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{FD3216BA-3EF1-4009-B82C-75B52A04049C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{6CD7C80E-5494-43B1-818B-7B75F040AE1E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{AC249207-AC1A-4EFE-AD1C-62711AC6C272}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{82571CCD-D8B1-40AF-8D14-CDF51B1FFAE5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{34835353-D438-418C-9250-9CFEC6C6AFA0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{C14D6692-35A3-448D-BAB6-2C8ACBCC2BAF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{AC8EA5F3-1EA7-400E-9E63-F4F0F1A80948}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{2DDEE54E-2F86-409C-B653-660CB44524F8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{2E8BCF2C-3574-4B3C-9BE3-5D97C5330630}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{330E2DCE-C6FD-4023-A912-4637B8FA3A60}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{10B466A1-4711-4FAC-A30C-F7B77418585D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{DD48AFB7-30F5-4D56-BEAB-BE28F9EA08E9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B77AD1FA-686F-47C9-9CA2-B3EE16BA6F3A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{A954D9D0-C96B-4911-8FDF-F2D6EF82EA6C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12205,7 +12205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4AD80F0-3A73-4173-8A39-EDF9DA3FC757}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{211884C0-658D-4493-893C-C4CC47781282}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13402,18 +13402,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{65546E8B-56B7-4416-B598-2EAA6AF4697B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{16A4CFEC-A03A-463A-B24A-DB70B11583B3}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{D985E545-E8B7-44E6-8E27-5A39935098DD}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{DB6DB781-E63E-464A-A5EA-6D8C3CE1649C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{D2795B61-8B35-4572-9816-819F45BACAC8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{3E34ECA1-AA1A-4147-81D0-ED05FCE7ABB2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C15BAEC1-7E31-4FD9-90D1-C1511AEBAEA4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{2D0A6A39-F6AF-4418-80F6-32902242D82A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{C9897D68-E014-419F-BD53-24B529EBD6D0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{72B13464-D8D8-4530-B539-41AF47FA138D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{33BF0FEC-5E43-40B3-81F3-8231219965A1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{2FF87565-EAE0-49A0-9576-DF14F6B518C7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{53DBDAE0-7CE7-4C2A-B90D-9ACEE213B095}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{67923309-0F57-4216-9EE0-BBC75BC06F1A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{1AFF50C2-499F-4CEB-BCF2-C08E171AB54E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{600F5486-7DA4-4114-ACCE-4ACB5B092DF1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{DC39DB60-B27D-4704-9C88-AD97E42BEA7E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{D8DC6D6A-7891-4CB7-9E15-09A9F47F3578}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{6D3D0819-A83B-481F-89F2-FC81FD2C5FB4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{53EFE631-2F00-46AE-96C0-42DB2761F845}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{7E4B02CD-FE16-45EE-A0CA-3117977F199C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{AC923D0B-C993-48BC-B2C3-72E2166B5367}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{17AD98E3-4B18-492E-BC92-870D89408BEC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{61E48D90-E4D3-4DC9-AE36-7DCAD30D7F0D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13426,7 +13426,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7370FF81-E493-4F30-B553-5C80E9B5240B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB5BFB33-8AAD-489B-8527-1EFBA0D76C5B}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14619,18 +14619,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A1DC5B0A-6F93-47DE-8743-F0454D67AC7A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{7E5D91B0-EEF7-4966-9519-2E323D5889A0}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{845A4F34-1937-4457-A604-813817A83DA9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{53B89A65-1BB2-4718-996A-9105939ACC4A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{30C2F32C-8F5A-4C12-ADAC-2DFB21DC3F3F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{59E3FF04-57EE-42EE-B822-68BBAB2E24F1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{30A88EC8-E276-4042-8031-98F4136B078C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{823C9516-4ED4-485B-BB89-F9C985FE37F6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{746D76AB-9E70-4664-9929-8815F57B8266}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{CA2929E6-026B-4440-8E72-F8A0C73A08C5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{6840AD27-9844-4B4A-A14B-C5FABD04526F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{2013197B-0FA3-4943-A8A3-EACB4AFDD903}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{9DDD4B0D-4277-4056-B4C5-B23E0B72B138}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B0E286BE-E78D-4303-B5FA-B45A9F516415}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{BCEEC096-778E-4055-AEC2-DEA858D8A591}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{339425D1-82B1-47A9-A33D-E6080DB528F6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B373CCF7-606C-4505-AD44-F33EB73B91A5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{8133FE97-41D3-42AD-AD8C-646E22785FF0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{7BFBBC63-BAE9-490B-AC54-9E64E49C387E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{35ADFE28-3CAC-4338-B0DE-F223E44705E6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B3BE89A1-5770-4865-814F-E3A3ED8103F0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{168DCF05-1A8D-41CE-9EB3-2493DBC8B22A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{42BC134F-5065-4500-9466-D1ECE90CDF7A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{D6AD9F1E-EE71-40EB-AC23-A649E1D952E1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14643,7 +14643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A0116EB-B905-4F03-AB1B-7342CE542552}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D1B43F7-C691-4E7F-BB33-02298D03B346}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15836,18 +15836,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{18F6C0C7-18B4-4211-AF49-DD8626323AF4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{7E62B081-47F2-40A6-9EA6-24002720AA26}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{701F0C43-C4BE-4EF3-B8EF-4C422E6A5207}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{01CE25C9-1466-4AA0-AE90-43AFDF12ADE7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{8C053D96-064D-464C-8E9C-291EB665735B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{E3355576-41D2-42FE-B4D0-3DABB2E4A0C8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{BE52D423-A4C0-419F-80F0-A7F7361EA894}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{89DCACDA-4118-4BC1-821E-6973E0D9C7E9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{898C8F8C-638A-4F80-BE5F-8ED716472436}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{88CC6346-C784-4821-AE72-97B464C6E076}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{CAF7EA7E-0406-4DC3-9789-2B23EDBB0E07}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E82FAEDD-69FC-4467-BF95-CB03F8243405}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{92BF9C59-6E0B-40B0-9445-36F10CB8C600}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{09E743FE-0EFF-43EE-8FE0-61D166489E75}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{EB7F8230-E2E9-4522-B351-76E9A14DE6E3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{80B373A0-1B19-465E-9568-91BEEDC4F5D9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{9B182EDD-A086-430B-8979-2217DE12D5F5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{4E4E0B43-B1F6-42AC-99C9-A72E906BBA56}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{3103216C-5175-45E8-B1A7-33AC586FC617}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{C65C7ADA-DF22-443C-A005-7DEE09C49BA0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{42D26D7F-3E66-4271-912B-27263C57952E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E8C2D010-B111-4392-ACFB-00F6BECC8105}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{90945ADC-24BC-4AC0-A702-3D767C82C125}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{386CA7AA-497B-45B4-B41C-B89ACEF86B8F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
